--- a/delta2/evidence/dfir/2021-01-31-dfir--ransom-ryuk--v1.1.xlsx
+++ b/delta2/evidence/dfir/2021-01-31-dfir--ransom-ryuk--v1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/evidence/dfir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F511CCBF-F174-8D41-B22D-5F7287A5A1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0C8E0F-E764-2A49-BCE8-EEACFEC4FBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-21100" windowWidth="38340" windowHeight="21100" activeTab="1" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
+    <workbookView xWindow="60" yWindow="-21100" windowWidth="38340" windowHeight="21100" activeTab="2" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Link" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="141">
   <si>
     <t>Description</t>
   </si>
@@ -370,12 +370,6 @@
     <t>file-create--winos</t>
   </si>
   <si>
-    <t>HackTool</t>
-  </si>
-  <si>
-    <t>Script</t>
-  </si>
-  <si>
     <t>Url</t>
   </si>
   <si>
@@ -442,9 +436,6 @@
     <t>https://github.com/Neo23x0/sigma/blob/c56cd2dfff6343f3694ef4fd606a305415599737/rules/windows/builtin/win_overpass_the_hash.yml</t>
   </si>
   <si>
-    <t>ET Pro - Network</t>
-  </si>
-  <si>
     <t>Sigma</t>
   </si>
   <si>
@@ -452,6 +443,33 @@
   </si>
   <si>
     <t>Cobalt Strike Injected into rundll32, pshell, taskhostw, explorer, winlogon</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Ioc Tag Like [TTP, C2, Tool, File, Account, Ip, ProcessSpawn, ProcessInjection, Url]</t>
+  </si>
+  <si>
+    <t>AlertSource [Sigma, EtPro]</t>
+  </si>
+  <si>
+    <t>process-create</t>
+  </si>
+  <si>
+    <t>file-create</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>edr specific data like [mde]</t>
+  </si>
+  <si>
+    <t>ETPro</t>
   </si>
 </sst>
 </file>
@@ -490,18 +508,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -534,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -574,26 +586,13 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -602,60 +601,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -904,12 +887,16 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -928,6 +915,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="1"/>
@@ -958,7 +946,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="1"/>
         </left>
@@ -971,8 +960,6 @@
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -994,6 +981,12 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1081,7 +1074,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0E3B4673-AD25-6A4D-8F8D-064CEFD4B92B}" name="Table10" displayName="Table10" ref="A1:N2" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0E3B4673-AD25-6A4D-8F8D-064CEFD4B92B}" name="Table10" displayName="Table10" ref="A1:N2" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:N2" xr:uid="{0E3B4673-AD25-6A4D-8F8D-064CEFD4B92B}"/>
   <tableColumns count="14">
     <tableColumn id="2" xr3:uid="{E605C444-C226-4346-BCBA-52D62757D0C6}" name="Index"/>
@@ -1104,7 +1097,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EDB04BC-9502-994C-A816-5C39F9E09A2A}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2EDB04BC-9502-994C-A816-5C39F9E09A2A}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:J2" xr:uid="{2EDB04BC-9502-994C-A816-5C39F9E09A2A}"/>
   <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{F0D4A855-D7F0-4F42-8ABD-537F34A0DEAD}" name="Index"/>
@@ -1123,15 +1116,15 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}" name="Table8" displayName="Table8" ref="A1:J2" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}" name="Table8" displayName="Table8" ref="A1:J2" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:J2" xr:uid="{C8BCB385-41B4-534F-910B-02D37EEF1C74}"/>
   <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{989B0AC2-E3DE-1F4F-AD3E-6D8F7E2B04ED}" name="Index"/>
     <tableColumn id="3" xr3:uid="{A7865D69-B2FE-EC42-9D1B-F15A0B19A0B6}" name="DataSource"/>
     <tableColumn id="1" xr3:uid="{A01D65E2-99C8-2443-8E32-029375F86783}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{9BFC03D1-5A49-C547-B104-0C491A21FB0D}" name="ServiceFileName" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9BFC03D1-5A49-C547-B104-0C491A21FB0D}" name="ServiceFileName" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{9D065F18-50B6-D54E-A0A9-54FCF0CB7050}" name="ServiceAccount"/>
-    <tableColumn id="6" xr3:uid="{DA9F6BFD-0EAC-2646-B078-7BF0150A774E}" name="ServiceName" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{DA9F6BFD-0EAC-2646-B078-7BF0150A774E}" name="ServiceName" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{E50E5F73-527F-834E-BCF9-BECBE813793F}" name="ServiceType"/>
     <tableColumn id="8" xr3:uid="{CD990353-D1B3-CF47-93B4-741F7D4ABCFD}" name="ServiceStartType"/>
     <tableColumn id="9" xr3:uid="{D94FBBD8-A009-E44D-A7B4-32423D3043F1}" name="NsObject"/>
@@ -1142,29 +1135,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D9" totalsRowShown="0" headerRowDxfId="29">
-  <autoFilter ref="A1:D9" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D10" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="A1:D10" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
     <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{55BECEA3-155C-FB4E-A6DF-73D8DA5F1DF6}" name="Index" dataDxfId="28"/>
     <tableColumn id="3" xr3:uid="{46938C8F-86E8-C344-9BB3-F9592B7417A9}" name="IocType"/>
-    <tableColumn id="4" xr3:uid="{E15020CD-8B74-A34D-B419-B4CE0245E9E0}" name="Ioc" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{6FB170F5-6334-4C47-8819-157AB78233B2}" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E15020CD-8B74-A34D-B419-B4CE0245E9E0}" name="Ioc" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{6FB170F5-6334-4C47-8819-157AB78233B2}" name="Description" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}" name="Table7" displayName="Table7" ref="A1:E10" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="A1:E10" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}" name="Table7" displayName="Table7" ref="A1:E11" totalsRowShown="0" headerRowDxfId="25">
+  <autoFilter ref="A1:E11" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{4082B79E-9BAC-EE49-9D02-A13CEF584AC0}" name="Index" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{3BA7C236-8980-8148-BF61-C4D7D7EB4FF6}" name="AlertType" dataDxfId="25"/>
-    <tableColumn id="1" xr3:uid="{1D1B78D1-79B4-7647-A551-F48C45DC7E05}" name="Description" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{D523A10C-1686-7841-A261-F254482F7C12}" name="AlertName" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4082B79E-9BAC-EE49-9D02-A13CEF584AC0}" name="Index" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{3BA7C236-8980-8148-BF61-C4D7D7EB4FF6}" name="AlertType" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{1D1B78D1-79B4-7647-A551-F48C45DC7E05}" name="Description" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{D523A10C-1686-7841-A261-F254482F7C12}" name="AlertName" dataDxfId="21"/>
     <tableColumn id="5" xr3:uid="{98586F36-1C3E-5F45-B3CB-99FE7469F855}" name="OpenSourceLink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1172,14 +1168,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L25" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:L25" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:L26" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7F4E572F-19FC-1C42-BF21-EF3EAA1CF83A}" name="Index"/>
     <tableColumn id="3" xr3:uid="{5246F5AC-4F4A-BC4C-892F-2E08E3349789}" name="DataSource"/>
-    <tableColumn id="2" xr3:uid="{5F8A3ABF-2915-064C-BFEA-3D5131ED4FEE}" name="Description" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{5F8A3ABF-2915-064C-BFEA-3D5131ED4FEE}" name="Description" dataDxfId="19"/>
     <tableColumn id="6" xr3:uid="{EC97FE83-2E03-5E48-888D-422875E85798}" name="CommandLine"/>
-    <tableColumn id="7" xr3:uid="{98ED451A-7E15-194B-9A2A-B48F6F5A495C}" name="InitiatingCommandLine" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{98ED451A-7E15-194B-9A2A-B48F6F5A495C}" name="InitiatingCommandLine" dataDxfId="18"/>
     <tableColumn id="8" xr3:uid="{A1DCCB51-4CD0-3D42-9845-AF6CCD7105FD}" name="FileName"/>
     <tableColumn id="9" xr3:uid="{CE79E0AD-312B-0E42-B228-D4F253BA6806}" name="InitiatingFileName"/>
     <tableColumn id="10" xr3:uid="{59BE221F-7EFC-0F46-9385-80C5DBB9BDA0}" name="FilePath"/>
@@ -1193,8 +1189,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}" name="Table5" displayName="Table5" ref="A1:K8" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:K8" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}" name="Table5" displayName="Table5" ref="A1:K9" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:K9" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{76C592A4-DC6F-6D43-92A4-408F9DA9250D}" name="Index"/>
     <tableColumn id="3" xr3:uid="{8DB66F33-29D6-F943-8797-F32327A212C4}" name="DataSource"/>
@@ -1213,7 +1209,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}" name="Table2" displayName="Table2" ref="A1:O2" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}" name="Table2" displayName="Table2" ref="A1:O2" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:O2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}"/>
   <tableColumns count="15">
     <tableColumn id="2" xr3:uid="{C61E54E6-397A-FC46-AAD6-240590F974E3}" name="Index"/>
@@ -1226,8 +1222,8 @@
     <tableColumn id="8" xr3:uid="{31283C92-1EFA-6A42-9DBF-04528B88D2E1}" name="DstUrl"/>
     <tableColumn id="9" xr3:uid="{51BA9213-7570-8E41-AE11-0FE14C3D5701}" name="Protocol"/>
     <tableColumn id="10" xr3:uid="{A2C22DBE-E948-9E46-816B-78C44758D5EF}" name="InitiatingFileName"/>
-    <tableColumn id="11" xr3:uid="{6B8E6EFD-C9FC-D343-A788-A722434ECD48}" name="InitiatingFilePath" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{AC978556-86B3-B84E-A543-525614EB9453}" name="InititatingCommandLine" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{6B8E6EFD-C9FC-D343-A788-A722434ECD48}" name="InitiatingFilePath" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{AC978556-86B3-B84E-A543-525614EB9453}" name="InititatingCommandLine" dataDxfId="14"/>
     <tableColumn id="13" xr3:uid="{880D4AC4-B22D-434F-8A35-AED8146625FB}" name="Account"/>
     <tableColumn id="14" xr3:uid="{C092A7D2-DC1E-F84A-A2FD-A8D268736295}" name="NsObject"/>
     <tableColumn id="15" xr3:uid="{6D50EE84-9CBF-294C-BBA4-C4B004FED849}" name="NsMeta"/>
@@ -1237,18 +1233,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}" name="Table9" displayName="Table9" ref="A1:K2" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}" name="Table9" displayName="Table9" ref="A1:K2" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:K2" xr:uid="{CE00DF4B-4838-3746-8DA8-223607BE2986}"/>
   <tableColumns count="11">
-    <tableColumn id="2" xr3:uid="{DDC92C39-DF7D-F145-A125-35CE110317A9}" name="Index" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{DDC92C39-DF7D-F145-A125-35CE110317A9}" name="Index" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{42FB8108-D944-5E41-9DA2-C80682897705}" name="DataSource"/>
-    <tableColumn id="4" xr3:uid="{C78F30C1-F3D2-4947-AA2C-9F4F7C73441D}" name="Description" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{C78F30C1-F3D2-4947-AA2C-9F4F7C73441D}" name="Description" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{F8DB3A8C-CCA7-FA4B-B054-EEF4AFBDDB4A}" name="SrcProcess"/>
     <tableColumn id="6" xr3:uid="{85F4D6B8-4608-3C44-97D3-0C4E61F02C01}" name="SrcProcessPath"/>
     <tableColumn id="7" xr3:uid="{6A22DAC2-2589-7B4E-9463-85B1BB8F7F22}" name="TgtProcess"/>
     <tableColumn id="8" xr3:uid="{F21FFD42-BED9-6D4E-B1E8-DC3622EA9839}" name="TgtProcessPath"/>
     <tableColumn id="9" xr3:uid="{9C5EFD03-F9F2-9B49-B696-939146DC942E}" name="Access"/>
-    <tableColumn id="10" xr3:uid="{0F18CD86-04B9-174A-A498-FA50ADE31CAB}" name="Trace" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{0F18CD86-04B9-174A-A498-FA50ADE31CAB}" name="Trace" dataDxfId="10"/>
     <tableColumn id="11" xr3:uid="{870A7B54-C726-2743-8557-6389004E2EB0}" name="NsObject"/>
     <tableColumn id="12" xr3:uid="{D7C8AEEE-0E43-864C-839B-BFF4391557E8}" name="NsMeta"/>
   </tableColumns>
@@ -1257,26 +1253,26 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CEFAFF50-3320-0243-AFDF-77D01F97C428}" name="Table12" displayName="Table12" ref="A1:D2" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{CEFAFF50-3320-0243-AFDF-77D01F97C428}" name="Table12" displayName="Table12" ref="A1:D2" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:D2" xr:uid="{CEFAFF50-3320-0243-AFDF-77D01F97C428}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{21897088-4E03-7549-9652-A4BEEE760E89}" name="Index"/>
     <tableColumn id="3" xr3:uid="{605B641F-5F59-B94F-991C-43300CC9BBDA}" name="DataSource"/>
     <tableColumn id="4" xr3:uid="{7427C911-F326-EF41-878F-ED1DD5F1C542}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{29472079-B95D-E845-9253-44428660972F}" name="ShellCommand" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{29472079-B95D-E845-9253-44428660972F}" name="ShellCommand" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:D2" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{77268EB9-1251-9745-92E1-436BE6AE585B}" name="Index"/>
     <tableColumn id="3" xr3:uid="{59DDF428-3E0B-6643-8972-9BD2488E3FA7}" name="DataSource"/>
-    <tableColumn id="6" xr3:uid="{575BE17D-399F-694F-BA78-2C24B0637E65}" name="Description" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{1DA5E534-877D-D843-9D4B-10ED484674AF}" name="ScriptContents" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{575BE17D-399F-694F-BA78-2C24B0637E65}" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1DA5E534-877D-D843-9D4B-10ED484674AF}" name="ScriptContents" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1614,35 +1610,35 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="122.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1656,10 +1652,10 @@
       <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G2" t="s">
@@ -1682,7 +1678,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1702,52 +1698,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +1765,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1782,38 +1781,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
@@ -1835,7 +1837,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1843,7 +1845,7 @@
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" customWidth="1"/>
-    <col min="4" max="4" width="61.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="61.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -1852,34 +1854,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1890,7 +1892,7 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1906,32 +1908,32 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18:C19"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="74.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="74.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1939,42 +1941,37 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
         <v>117</v>
       </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>114</v>
+      <c r="D4" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1982,60 +1979,74 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>133</v>
+      <c r="C8" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>134</v>
+        <v>110</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2051,146 +2062,154 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="102.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="153.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="6" t="s">
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="E6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="6" t="s">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="E5" t="s">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="E8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>4</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="E6" s="6" t="s">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="E7" t="s">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="E8" t="s">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="E9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2206,19 +2225,19 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A25"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="51" style="6" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51" style="5" customWidth="1"/>
+    <col min="4" max="4" width="68.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="54.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="29.1640625" bestFit="1" customWidth="1"/>
@@ -2230,54 +2249,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2286,10 +2303,10 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2298,10 +2315,10 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2310,10 +2327,10 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2322,10 +2339,10 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2334,10 +2351,10 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2346,10 +2363,10 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2358,10 +2375,10 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2370,10 +2387,10 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2382,10 +2399,10 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -2394,10 +2411,10 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -2406,10 +2423,10 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -2418,10 +2435,10 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -2430,10 +2447,10 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2442,10 +2459,10 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -2454,10 +2471,10 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -2466,10 +2483,10 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -2478,10 +2495,10 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -2490,10 +2507,10 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -2502,10 +2519,10 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -2514,10 +2531,10 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -2526,10 +2543,10 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -2538,10 +2555,10 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -2550,10 +2567,22 @@
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2568,11 +2597,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2591,37 +2620,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2630,13 +2659,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2727,6 +2750,20 @@
       </c>
       <c r="G8" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2758,56 +2795,56 @@
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="61.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.1640625" customWidth="1"/>
     <col min="15" max="15" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2843,53 +2880,53 @@
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="61.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
     <col min="11" max="11" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2912,7 +2949,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2920,26 +2957,29 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="114.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="114.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2959,7 +2999,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2971,22 +3011,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
